--- a/environmental_bowtie_data_2025-06-19.xlsx
+++ b/environmental_bowtie_data_2025-06-19.xlsx
@@ -1,193 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kult0-my.sharepoint.com/personal/arturas_razinkovas-baziukas_ku_lt/Documents/HORIZON_EUROPE/bowtie_app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_8A06112615E162AB68B7B15A17DB0B6192598D62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B603B734-F4AA-4E47-B905-05594971DA3A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="5415" yWindow="5415" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">Threat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventive_Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protective_Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk_Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultural fertilizer runoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eutrophication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algal blooms and dead zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient management plans and buffer strips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water quality monitoring and alerts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal waste from farms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fish kills and biodiversity loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management and rotational grazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat restoration and restocking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban stormwater runoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen depletion in water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stormwater management and green infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency water treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sewage treatment overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drinking water contamination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater treatment upgrades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public health advisories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Septic system leakage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beach closures and health risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Septic system inspections and maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative water supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial nutrient discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economic losses to fisheries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial discharge permits and monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake aeration and biomanipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial wastewater discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water pollution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquatic ecosystem damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wastewater treatment standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency response protocols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical spill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxic release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildlife poisoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spill prevention plans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency containment systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature rise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme weather events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon reduction strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptation measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invasive species introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem disruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native species displacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biosecurity measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control and eradication programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>Preventive_Barrier</t>
+  </si>
+  <si>
+    <t>Protective_Barrier</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Risk_Level</t>
+  </si>
+  <si>
+    <t>Agricultural fertilizer runoff</t>
+  </si>
+  <si>
+    <t>Eutrophication</t>
+  </si>
+  <si>
+    <t>Algal blooms and dead zones</t>
+  </si>
+  <si>
+    <t>Nutrient management plans and buffer strips</t>
+  </si>
+  <si>
+    <t>Water quality monitoring and alerts</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Animal waste from farms</t>
+  </si>
+  <si>
+    <t>Fish kills and biodiversity loss</t>
+  </si>
+  <si>
+    <t>Manure management and rotational grazing</t>
+  </si>
+  <si>
+    <t>Habitat restoration and restocking</t>
+  </si>
+  <si>
+    <t>Urban stormwater runoff</t>
+  </si>
+  <si>
+    <t>Oxygen depletion in water</t>
+  </si>
+  <si>
+    <t>Stormwater management and green infrastructure</t>
+  </si>
+  <si>
+    <t>Emergency water treatment</t>
+  </si>
+  <si>
+    <t>Sewage treatment overflow</t>
+  </si>
+  <si>
+    <t>Drinking water contamination</t>
+  </si>
+  <si>
+    <t>Wastewater treatment upgrades</t>
+  </si>
+  <si>
+    <t>Public health advisories</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Septic system leakage</t>
+  </si>
+  <si>
+    <t>Beach closures and health risks</t>
+  </si>
+  <si>
+    <t>Septic system inspections and maintenance</t>
+  </si>
+  <si>
+    <t>Alternative water supplies</t>
+  </si>
+  <si>
+    <t>Industrial nutrient discharge</t>
+  </si>
+  <si>
+    <t>Economic losses to fisheries</t>
+  </si>
+  <si>
+    <t>Industrial discharge permits and monitoring</t>
+  </si>
+  <si>
+    <t>Lake aeration and biomanipulation</t>
+  </si>
+  <si>
+    <t>Industrial wastewater discharge</t>
+  </si>
+  <si>
+    <t>Water pollution</t>
+  </si>
+  <si>
+    <t>Aquatic ecosystem damage</t>
+  </si>
+  <si>
+    <t>Wastewater treatment standards</t>
+  </si>
+  <si>
+    <t>Emergency response protocols</t>
+  </si>
+  <si>
+    <t>Chemical spill</t>
+  </si>
+  <si>
+    <t>Toxic release</t>
+  </si>
+  <si>
+    <t>Wildlife poisoning</t>
+  </si>
+  <si>
+    <t>Spill prevention plans</t>
+  </si>
+  <si>
+    <t>Emergency containment systems</t>
+  </si>
+  <si>
+    <t>Climate change</t>
+  </si>
+  <si>
+    <t>Temperature rise</t>
+  </si>
+  <si>
+    <t>Extreme weather events</t>
+  </si>
+  <si>
+    <t>Carbon reduction strategies</t>
+  </si>
+  <si>
+    <t>Adaptation measures</t>
+  </si>
+  <si>
+    <t>Invasive species introduction</t>
+  </si>
+  <si>
+    <t>Ecosystem disruption</t>
+  </si>
+  <si>
+    <t>Native species displacement</t>
+  </si>
+  <si>
+    <t>Biosecurity measures</t>
+  </si>
+  <si>
+    <t>Control and eradication programs</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,6 +230,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -504,14 +520,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -553,17 +578,17 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -579,17 +604,17 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -605,17 +630,17 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -631,17 +656,17 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -657,17 +682,17 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -683,17 +708,17 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -709,17 +734,17 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -735,17 +760,17 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -761,17 +786,17 @@
       <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -787,10 +812,10 @@
       <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -799,6 +824,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>